--- a/Resources/1998/Master_1998.xlsx
+++ b/Resources/1998/Master_1998.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="462">
   <si>
     <t>PID</t>
   </si>
@@ -208,16 +208,10 @@
     <t>2ndRK</t>
   </si>
   <si>
-    <t>BPercentile_x</t>
-  </si>
-  <si>
-    <t>APercentile_x</t>
-  </si>
-  <si>
-    <t>BPercentile_y</t>
-  </si>
-  <si>
-    <t>APercentile_y</t>
+    <t>BPercentile</t>
+  </si>
+  <si>
+    <t>APercentile</t>
   </si>
   <si>
     <t>abdulma02</t>
@@ -1763,13 +1757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ186"/>
+  <dimension ref="A1:BO186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:67">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,31 +1962,25 @@
       <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E2">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G2">
         <v>3300000</v>
@@ -2172,36 +2160,30 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>275.8</v>
+        <v>22.48648648648649</v>
       </c>
       <c r="BO2">
-        <v>314.4</v>
-      </c>
-      <c r="BP2">
-        <v>22.48648648648649</v>
-      </c>
-      <c r="BQ2">
         <v>24.97297297297297</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:67">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G3">
         <v>1226880</v>
@@ -2381,36 +2363,30 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>251.8</v>
+        <v>27.13513513513514</v>
       </c>
       <c r="BO3">
-        <v>320.8</v>
-      </c>
-      <c r="BP3">
-        <v>27.13513513513514</v>
-      </c>
-      <c r="BQ3">
         <v>21.83783783783784</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:67">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E4">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G4">
         <v>1107240</v>
@@ -2590,36 +2566,30 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>141.2</v>
+        <v>57.51351351351352</v>
       </c>
       <c r="BO4">
-        <v>117</v>
-      </c>
-      <c r="BP4">
-        <v>57.51351351351352</v>
-      </c>
-      <c r="BQ4">
         <v>71.24324324324324</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:67">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5">
         <v>4000000</v>
@@ -2799,36 +2769,30 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>109</v>
+        <v>66.81081081081081</v>
       </c>
       <c r="BO5">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="BP5">
-        <v>66.81081081081081</v>
-      </c>
-      <c r="BQ5">
         <v>84.43243243243242</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:67">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E6">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G6">
         <v>1200000</v>
@@ -3008,36 +2972,30 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>206.6</v>
+        <v>38.37837837837838</v>
       </c>
       <c r="BO6">
-        <v>109.2</v>
-      </c>
-      <c r="BP6">
-        <v>38.37837837837838</v>
-      </c>
-      <c r="BQ6">
         <v>73.18918918918919</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:67">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E7">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7">
         <v>350000</v>
@@ -3217,36 +3175,30 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>155.6</v>
+        <v>54.91891891891891</v>
       </c>
       <c r="BO7">
-        <v>159.4</v>
-      </c>
-      <c r="BP7">
-        <v>54.91891891891891</v>
-      </c>
-      <c r="BQ7">
         <v>60.54054054054055</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:67">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E8">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G8">
         <v>272250</v>
@@ -3426,36 +3378,30 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>258.8</v>
+        <v>27.89189189189189</v>
       </c>
       <c r="BO8">
-        <v>363.2</v>
-      </c>
-      <c r="BP8">
-        <v>27.89189189189189</v>
-      </c>
-      <c r="BQ8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:67">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E9">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G9">
         <v>2800000</v>
@@ -3635,36 +3581,30 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>177.2</v>
+        <v>42.48648648648648</v>
       </c>
       <c r="BO9">
-        <v>287.6</v>
-      </c>
-      <c r="BP9">
-        <v>42.48648648648648</v>
-      </c>
-      <c r="BQ9">
         <v>26.5945945945946</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:67">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G10">
         <v>3400000</v>
@@ -3844,27 +3784,21 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>188</v>
+        <v>45.83783783783784</v>
       </c>
       <c r="BO10">
-        <v>80</v>
-      </c>
-      <c r="BP10">
-        <v>45.83783783783784</v>
-      </c>
-      <c r="BQ10">
         <v>81.62162162162161</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:67">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -3873,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G11">
         <v>1946880</v>
@@ -4053,36 +3987,30 @@
         <v>0</v>
       </c>
       <c r="BN11">
-        <v>146.6</v>
+        <v>53.83783783783783</v>
       </c>
       <c r="BO11">
-        <v>290</v>
-      </c>
-      <c r="BP11">
-        <v>53.83783783783783</v>
-      </c>
-      <c r="BQ11">
         <v>30.05405405405405</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:67">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G12">
         <v>3000000</v>
@@ -4262,27 +4190,21 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>74.40000000000001</v>
+        <v>73.40540540540542</v>
       </c>
       <c r="BO12">
-        <v>159.8</v>
-      </c>
-      <c r="BP12">
-        <v>73.40540540540542</v>
-      </c>
-      <c r="BQ12">
         <v>60.75675675675676</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:67">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -4291,7 +4213,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G13">
         <v>1430000</v>
@@ -4471,36 +4393,30 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <v>241.2</v>
+        <v>28.10810810810811</v>
       </c>
       <c r="BO13">
-        <v>205</v>
-      </c>
-      <c r="BP13">
-        <v>28.10810810810811</v>
-      </c>
-      <c r="BQ13">
         <v>49.18918918918919</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:67">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E14">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G14">
         <v>422500</v>
@@ -4680,36 +4596,30 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>163.8</v>
+        <v>50.27027027027027</v>
       </c>
       <c r="BO14">
-        <v>265.6</v>
-      </c>
-      <c r="BP14">
-        <v>50.27027027027027</v>
-      </c>
-      <c r="BQ14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:67">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E15">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>1469440</v>
@@ -4889,36 +4799,30 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>80.2</v>
+        <v>72.75675675675676</v>
       </c>
       <c r="BO15">
-        <v>84</v>
-      </c>
-      <c r="BP15">
-        <v>72.75675675675676</v>
-      </c>
-      <c r="BQ15">
         <v>82.27027027027026</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:67">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E16">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G16">
         <v>272250</v>
@@ -5098,36 +5002,30 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>277.6</v>
+        <v>20.97297297297297</v>
       </c>
       <c r="BO16">
-        <v>318.6</v>
-      </c>
-      <c r="BP16">
-        <v>20.97297297297297</v>
-      </c>
-      <c r="BQ16">
         <v>23.13513513513513</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:67">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E17">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G17">
         <v>1260000</v>
@@ -5307,36 +5205,30 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>226.2</v>
+        <v>36.32432432432432</v>
       </c>
       <c r="BO17">
-        <v>300.4</v>
-      </c>
-      <c r="BP17">
-        <v>36.32432432432432</v>
-      </c>
-      <c r="BQ17">
         <v>24.21621621621622</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:67">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E18">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G18">
         <v>1167240</v>
@@ -5516,36 +5408,30 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>127</v>
+        <v>59.02702702702702</v>
       </c>
       <c r="BO18">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="BP18">
-        <v>59.02702702702702</v>
-      </c>
-      <c r="BQ18">
         <v>84.21621621621622</v>
       </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:67">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G19">
         <v>2250000</v>
@@ -5725,36 +5611,30 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>250.2</v>
+        <v>28</v>
       </c>
       <c r="BO19">
-        <v>228</v>
-      </c>
-      <c r="BP19">
-        <v>28</v>
-      </c>
-      <c r="BQ19">
         <v>42.27027027027027</v>
       </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:67">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E20">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G20">
         <v>1430000</v>
@@ -5934,36 +5814,30 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>211.2</v>
+        <v>36</v>
       </c>
       <c r="BO20">
-        <v>133.8</v>
-      </c>
-      <c r="BP20">
-        <v>36</v>
-      </c>
-      <c r="BQ20">
         <v>68.43243243243244</v>
       </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:67">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E21">
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G21">
         <v>272250</v>
@@ -6143,36 +6017,30 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>329.4</v>
+        <v>12.32432432432432</v>
       </c>
       <c r="BO21">
-        <v>376.4</v>
-      </c>
-      <c r="BP21">
-        <v>12.32432432432432</v>
-      </c>
-      <c r="BQ21">
         <v>9.405405405405405</v>
       </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:67">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E22">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G22">
         <v>2055421</v>
@@ -6352,36 +6220,30 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>236.2</v>
+        <v>33.2972972972973</v>
       </c>
       <c r="BO22">
-        <v>239.2</v>
-      </c>
-      <c r="BP22">
-        <v>33.2972972972973</v>
-      </c>
-      <c r="BQ22">
         <v>40.43243243243243</v>
       </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:67">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E23">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G23">
         <v>2799240</v>
@@ -6561,27 +6423,21 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>79</v>
+        <v>73.18918918918919</v>
       </c>
       <c r="BO23">
-        <v>221</v>
-      </c>
-      <c r="BP23">
-        <v>73.18918918918919</v>
-      </c>
-      <c r="BQ23">
         <v>43.35135135135135</v>
       </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:67">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -6590,7 +6446,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G24">
         <v>7000000</v>
@@ -6770,27 +6626,21 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>159</v>
+        <v>51.67567567567567</v>
       </c>
       <c r="BO24">
-        <v>137.8</v>
-      </c>
-      <c r="BP24">
-        <v>51.67567567567567</v>
-      </c>
-      <c r="BQ24">
         <v>64.32432432432432</v>
       </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:67">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -6799,7 +6649,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G25">
         <v>1600000</v>
@@ -6976,36 +6826,30 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>272.6</v>
+        <v>43.67567567567568</v>
       </c>
       <c r="BO25">
-        <v>278.6</v>
-      </c>
-      <c r="BP25">
-        <v>43.67567567567568</v>
-      </c>
-      <c r="BQ25">
         <v>33.4054054054054</v>
       </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:67">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E26">
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G26">
         <v>900000</v>
@@ -7185,36 +7029,30 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>226.2</v>
+        <v>35.35135135135135</v>
       </c>
       <c r="BO26">
-        <v>261.8</v>
-      </c>
-      <c r="BP26">
-        <v>35.35135135135135</v>
-      </c>
-      <c r="BQ26">
         <v>36.75675675675676</v>
       </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:67">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E27">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G27">
         <v>2500000</v>
@@ -7394,36 +7232,30 @@
         <v>0</v>
       </c>
       <c r="BN27">
-        <v>93</v>
+        <v>70.70270270270271</v>
       </c>
       <c r="BO27">
-        <v>55.4</v>
-      </c>
-      <c r="BP27">
-        <v>70.70270270270271</v>
-      </c>
-      <c r="BQ27">
         <v>89.51351351351352</v>
       </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:67">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E28">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G28">
         <v>999240</v>
@@ -7603,36 +7435,30 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>229.8</v>
+        <v>32.64864864864865</v>
       </c>
       <c r="BO28">
-        <v>219</v>
-      </c>
-      <c r="BP28">
-        <v>32.64864864864865</v>
-      </c>
-      <c r="BQ28">
         <v>45.40540540540541</v>
       </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:67">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E29">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G29">
         <v>326700</v>
@@ -7812,36 +7638,30 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>152.8</v>
+        <v>55.56756756756756</v>
       </c>
       <c r="BO29">
-        <v>152.2</v>
-      </c>
-      <c r="BP29">
-        <v>55.56756756756756</v>
-      </c>
-      <c r="BQ29">
         <v>60.86486486486486</v>
       </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:67">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E30">
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G30">
         <v>3600000</v>
@@ -8021,36 +7841,30 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>118.2</v>
+        <v>60.10810810810811</v>
       </c>
       <c r="BO30">
-        <v>243.8</v>
-      </c>
-      <c r="BP30">
-        <v>60.10810810810811</v>
-      </c>
-      <c r="BQ30">
         <v>37.62162162162162</v>
       </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:67">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G31">
         <v>3120000</v>
@@ -8230,36 +8044,30 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>197.6</v>
+        <v>38.27027027027027</v>
       </c>
       <c r="BO31">
-        <v>217.2</v>
-      </c>
-      <c r="BP31">
-        <v>38.27027027027027</v>
-      </c>
-      <c r="BQ31">
         <v>45.72972972972973</v>
       </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:67">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E32">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G32">
         <v>2012767</v>
@@ -8439,36 +8247,30 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>54.8</v>
+        <v>80.97297297297298</v>
       </c>
       <c r="BO32">
-        <v>145.6</v>
-      </c>
-      <c r="BP32">
-        <v>80.97297297297298</v>
-      </c>
-      <c r="BQ32">
         <v>65.18918918918919</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:67">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E33">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G33">
         <v>1200000</v>
@@ -8645,27 +8447,21 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>258.2</v>
+        <v>49.4054054054054</v>
       </c>
       <c r="BO33">
-        <v>286</v>
-      </c>
-      <c r="BP33">
-        <v>49.4054054054054</v>
-      </c>
-      <c r="BQ33">
         <v>30.37837837837838</v>
       </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:67">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -8674,7 +8470,7 @@
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G34">
         <v>8002800</v>
@@ -8854,36 +8650,30 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <v>71.8</v>
+        <v>76.43243243243244</v>
       </c>
       <c r="BO34">
-        <v>130.8</v>
-      </c>
-      <c r="BP34">
-        <v>76.43243243243244</v>
-      </c>
-      <c r="BQ34">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:67">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E35">
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G35">
         <v>1700000</v>
@@ -9063,36 +8853,30 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>169.6</v>
+        <v>50.27027027027027</v>
       </c>
       <c r="BO35">
-        <v>343.6</v>
-      </c>
-      <c r="BP35">
-        <v>50.27027027027027</v>
-      </c>
-      <c r="BQ35">
         <v>17.18918918918919</v>
       </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:67">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G36">
         <v>326700</v>
@@ -9272,36 +9056,30 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>153.8</v>
+        <v>53.4054054054054</v>
       </c>
       <c r="BO36">
-        <v>216.8</v>
-      </c>
-      <c r="BP36">
-        <v>53.4054054054054</v>
-      </c>
-      <c r="BQ36">
         <v>46.7027027027027</v>
       </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:67">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E37">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G37">
         <v>420000</v>
@@ -9481,27 +9259,21 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>294.8</v>
+        <v>19.02702702702703</v>
       </c>
       <c r="BO37">
-        <v>359.2</v>
-      </c>
-      <c r="BP37">
-        <v>19.02702702702703</v>
-      </c>
-      <c r="BQ37">
         <v>14.59459459459459</v>
       </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:67">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -9510,7 +9282,7 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G38">
         <v>1333800</v>
@@ -9690,36 +9462,30 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>304.4</v>
+        <v>12.43243243243243</v>
       </c>
       <c r="BO38">
-        <v>321</v>
-      </c>
-      <c r="BP38">
-        <v>12.43243243243243</v>
-      </c>
-      <c r="BQ38">
         <v>22.37837837837838</v>
       </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:67">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E39">
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G39">
         <v>500000</v>
@@ -9899,36 +9665,30 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>234</v>
+        <v>29.83783783783784</v>
       </c>
       <c r="BO39">
-        <v>298.8</v>
-      </c>
-      <c r="BP39">
-        <v>29.83783783783784</v>
-      </c>
-      <c r="BQ39">
         <v>30.59459459459459</v>
       </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:67">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E40">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G40">
         <v>1478880</v>
@@ -10108,36 +9868,30 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>128</v>
+        <v>58.37837837837838</v>
       </c>
       <c r="BO40">
-        <v>209.4</v>
-      </c>
-      <c r="BP40">
-        <v>58.37837837837838</v>
-      </c>
-      <c r="BQ40">
         <v>47.02702702702703</v>
       </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:67">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E41">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G41">
         <v>326700</v>
@@ -10317,27 +10071,21 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>238</v>
+        <v>27.35135135135135</v>
       </c>
       <c r="BO41">
-        <v>292.8</v>
-      </c>
-      <c r="BP41">
-        <v>27.35135135135135</v>
-      </c>
-      <c r="BQ41">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:67">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
@@ -10346,7 +10094,7 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G42">
         <v>272250</v>
@@ -10526,36 +10274,30 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>224</v>
+        <v>34.05405405405406</v>
       </c>
       <c r="BO42">
-        <v>257</v>
-      </c>
-      <c r="BP42">
-        <v>34.05405405405406</v>
-      </c>
-      <c r="BQ42">
         <v>36.32432432432432</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:67">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E43">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G43">
         <v>1200000</v>
@@ -10735,36 +10477,30 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>171.4</v>
+        <v>48.10810810810811</v>
       </c>
       <c r="BO43">
-        <v>201.6</v>
-      </c>
-      <c r="BP43">
-        <v>48.10810810810811</v>
-      </c>
-      <c r="BQ43">
         <v>50.05405405405406</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:67">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E44">
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G44">
         <v>500000</v>
@@ -10944,36 +10680,30 @@
         <v>0</v>
       </c>
       <c r="BN44">
-        <v>229.2</v>
+        <v>29.83783783783784</v>
       </c>
       <c r="BO44">
-        <v>310.8</v>
-      </c>
-      <c r="BP44">
-        <v>29.83783783783784</v>
-      </c>
-      <c r="BQ44">
         <v>25.51351351351351</v>
       </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:67">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E45">
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G45">
         <v>2298777</v>
@@ -11153,36 +10883,30 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>183.4</v>
+        <v>41.29729729729731</v>
       </c>
       <c r="BO45">
-        <v>241.6</v>
-      </c>
-      <c r="BP45">
-        <v>41.29729729729731</v>
-      </c>
-      <c r="BQ45">
         <v>38.7027027027027</v>
       </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:67">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E46">
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G46">
         <v>4050000</v>
@@ -11362,36 +11086,30 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>100</v>
+        <v>67.89189189189189</v>
       </c>
       <c r="BO46">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="BP46">
-        <v>67.89189189189189</v>
-      </c>
-      <c r="BQ46">
         <v>78.70270270270269</v>
       </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:67">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E47">
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G47">
         <v>272250</v>
@@ -11571,36 +11289,30 @@
         <v>0</v>
       </c>
       <c r="BN47">
-        <v>206.2</v>
+        <v>37.4054054054054</v>
       </c>
       <c r="BO47">
-        <v>160.4</v>
-      </c>
-      <c r="BP47">
-        <v>37.4054054054054</v>
-      </c>
-      <c r="BQ47">
         <v>59.45945945945946</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:67">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E48">
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G48">
         <v>1135000</v>
@@ -11777,27 +11489,21 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>265.8</v>
+        <v>48.21621621621622</v>
       </c>
       <c r="BO48">
-        <v>311.2</v>
-      </c>
-      <c r="BP48">
-        <v>48.21621621621622</v>
-      </c>
-      <c r="BQ48">
         <v>21.29729729729729</v>
       </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:67">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
@@ -11806,7 +11512,7 @@
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G49">
         <v>2967840</v>
@@ -11986,36 +11692,30 @@
         <v>0</v>
       </c>
       <c r="BN49">
-        <v>68</v>
+        <v>78.81081081081082</v>
       </c>
       <c r="BO49">
-        <v>20.8</v>
-      </c>
-      <c r="BP49">
-        <v>78.81081081081082</v>
-      </c>
-      <c r="BQ49">
         <v>97.08108108108108</v>
       </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:67">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E50">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G50">
         <v>400000</v>
@@ -12195,36 +11895,30 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <v>241</v>
+        <v>33.83783783783784</v>
       </c>
       <c r="BO50">
-        <v>144.4</v>
-      </c>
-      <c r="BP50">
-        <v>33.83783783783784</v>
-      </c>
-      <c r="BQ50">
         <v>65.18918918918919</v>
       </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:67">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E51">
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G51">
         <v>1240000</v>
@@ -12404,36 +12098,30 @@
         <v>0</v>
       </c>
       <c r="BN51">
-        <v>188.8</v>
+        <v>43.78378378378379</v>
       </c>
       <c r="BO51">
-        <v>179</v>
-      </c>
-      <c r="BP51">
-        <v>43.78378378378379</v>
-      </c>
-      <c r="BQ51">
         <v>54.48648648648648</v>
       </c>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:67">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E52">
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G52">
         <v>5333333</v>
@@ -12613,36 +12301,30 @@
         <v>0</v>
       </c>
       <c r="BN52">
-        <v>173</v>
+        <v>46.91891891891892</v>
       </c>
       <c r="BO52">
-        <v>267.6</v>
-      </c>
-      <c r="BP52">
-        <v>46.91891891891892</v>
-      </c>
-      <c r="BQ52">
         <v>32.21621621621622</v>
       </c>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:67">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E53">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G53">
         <v>3650000</v>
@@ -12822,27 +12504,21 @@
         <v>0</v>
       </c>
       <c r="BN53">
-        <v>90</v>
+        <v>70.37837837837837</v>
       </c>
       <c r="BO53">
-        <v>222</v>
-      </c>
-      <c r="BP53">
-        <v>70.37837837837837</v>
-      </c>
-      <c r="BQ53">
         <v>42.59459459459459</v>
       </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:67">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
@@ -12851,7 +12527,7 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G54">
         <v>2090000</v>
@@ -13028,27 +12704,21 @@
         <v>0</v>
       </c>
       <c r="BN54">
-        <v>248.4</v>
+        <v>49.4054054054054</v>
       </c>
       <c r="BO54">
-        <v>192</v>
-      </c>
-      <c r="BP54">
-        <v>49.4054054054054</v>
-      </c>
-      <c r="BQ54">
         <v>52.10810810810811</v>
       </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:67">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -13057,7 +12727,7 @@
         <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G55">
         <v>4000000</v>
@@ -13237,36 +12907,30 @@
         <v>0</v>
       </c>
       <c r="BN55">
-        <v>277.4</v>
+        <v>19.45945945945946</v>
       </c>
       <c r="BO55">
-        <v>334.2</v>
-      </c>
-      <c r="BP55">
-        <v>19.45945945945946</v>
-      </c>
-      <c r="BQ55">
         <v>18.91891891891892</v>
       </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:67">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E56">
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G56">
         <v>703200</v>
@@ -13446,27 +13110,21 @@
         <v>0</v>
       </c>
       <c r="BN56">
-        <v>202.4</v>
+        <v>41.72972972972973</v>
       </c>
       <c r="BO56">
-        <v>211.8</v>
-      </c>
-      <c r="BP56">
-        <v>41.72972972972973</v>
-      </c>
-      <c r="BQ56">
         <v>46.37837837837838</v>
       </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:67">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
@@ -13475,7 +13133,7 @@
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G57">
         <v>1291440</v>
@@ -13655,36 +13313,30 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <v>171.8</v>
+        <v>47.13513513513514</v>
       </c>
       <c r="BO57">
-        <v>224.2</v>
-      </c>
-      <c r="BP57">
-        <v>47.13513513513514</v>
-      </c>
-      <c r="BQ57">
         <v>46.48648648648649</v>
       </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:67">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E58">
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G58">
         <v>504000</v>
@@ -13864,36 +13516,30 @@
         <v>0</v>
       </c>
       <c r="BN58">
-        <v>249</v>
+        <v>29.2972972972973</v>
       </c>
       <c r="BO58">
-        <v>334.8</v>
-      </c>
-      <c r="BP58">
-        <v>29.2972972972973</v>
-      </c>
-      <c r="BQ58">
         <v>19.35135135135135</v>
       </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:67">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E59">
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G59">
         <v>1000000</v>
@@ -14073,36 +13719,30 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <v>90.8</v>
+        <v>69.51351351351352</v>
       </c>
       <c r="BO59">
-        <v>166.8</v>
-      </c>
-      <c r="BP59">
-        <v>69.51351351351352</v>
-      </c>
-      <c r="BQ59">
         <v>59.89189189189189</v>
       </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:67">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E60">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G60">
         <v>1495000</v>
@@ -14282,36 +13922,30 @@
         <v>0</v>
       </c>
       <c r="BN60">
-        <v>260.6</v>
+        <v>28.64864864864865</v>
       </c>
       <c r="BO60">
-        <v>365.6</v>
-      </c>
-      <c r="BP60">
-        <v>28.64864864864865</v>
-      </c>
-      <c r="BQ60">
         <v>12.64864864864865</v>
       </c>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:67">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E61">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G61">
         <v>1293240</v>
@@ -14491,27 +14125,21 @@
         <v>0</v>
       </c>
       <c r="BN61">
-        <v>290</v>
+        <v>20.86486486486487</v>
       </c>
       <c r="BO61">
-        <v>299.8</v>
-      </c>
-      <c r="BP61">
-        <v>20.86486486486487</v>
-      </c>
-      <c r="BQ61">
         <v>27.13513513513514</v>
       </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:67">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -14520,7 +14148,7 @@
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G62">
         <v>2109120</v>
@@ -14700,36 +14328,30 @@
         <v>0</v>
       </c>
       <c r="BN62">
-        <v>23.2</v>
+        <v>91.56756756756758</v>
       </c>
       <c r="BO62">
-        <v>75</v>
-      </c>
-      <c r="BP62">
-        <v>91.56756756756758</v>
-      </c>
-      <c r="BQ62">
         <v>84.1081081081081</v>
       </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:67">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E63">
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G63">
         <v>1800000</v>
@@ -14906,27 +14528,21 @@
         <v>0</v>
       </c>
       <c r="BN63">
-        <v>214.6</v>
+        <v>59.24324324324323</v>
       </c>
       <c r="BO63">
-        <v>307.8</v>
-      </c>
-      <c r="BP63">
-        <v>59.24324324324323</v>
-      </c>
-      <c r="BQ63">
         <v>21.94594594594595</v>
       </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:67">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -14935,7 +14551,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G64">
         <v>3656400</v>
@@ -15115,36 +14731,30 @@
         <v>0</v>
       </c>
       <c r="BN64">
-        <v>143.6</v>
+        <v>55.78378378378378</v>
       </c>
       <c r="BO64">
-        <v>189.2</v>
-      </c>
-      <c r="BP64">
-        <v>55.78378378378378</v>
-      </c>
-      <c r="BQ64">
         <v>55.8918918918919</v>
       </c>
     </row>
-    <row r="65" spans="1:69">
+    <row r="65" spans="1:67">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E65">
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G65">
         <v>272250</v>
@@ -15324,36 +14934,30 @@
         <v>0</v>
       </c>
       <c r="BN65">
-        <v>275.4</v>
+        <v>19.89189189189189</v>
       </c>
       <c r="BO65">
-        <v>348.4</v>
-      </c>
-      <c r="BP65">
-        <v>19.89189189189189</v>
-      </c>
-      <c r="BQ65">
         <v>15.02702702702703</v>
       </c>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:67">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D66" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E66">
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G66">
         <v>4400000</v>
@@ -15533,27 +15137,21 @@
         <v>0</v>
       </c>
       <c r="BN66">
-        <v>76</v>
+        <v>75.35135135135135</v>
       </c>
       <c r="BO66">
-        <v>162</v>
-      </c>
-      <c r="BP66">
-        <v>75.35135135135135</v>
-      </c>
-      <c r="BQ66">
         <v>59.45945945945946</v>
       </c>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:67">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
@@ -15562,7 +15160,7 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G67">
         <v>2780400</v>
@@ -15742,36 +15340,30 @@
         <v>0</v>
       </c>
       <c r="BN67">
-        <v>139.4</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="BO67">
-        <v>118</v>
-      </c>
-      <c r="BP67">
-        <v>55.24324324324324</v>
-      </c>
-      <c r="BQ67">
         <v>70.37837837837837</v>
       </c>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:67">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E68">
         <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G68">
         <v>330000</v>
@@ -15951,36 +15543,30 @@
         <v>0</v>
       </c>
       <c r="BN68">
-        <v>193.2</v>
+        <v>42.91891891891893</v>
       </c>
       <c r="BO68">
-        <v>268</v>
-      </c>
-      <c r="BP68">
-        <v>42.91891891891893</v>
-      </c>
-      <c r="BQ68">
         <v>37.62162162162162</v>
       </c>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:67">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D69" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E69">
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G69">
         <v>5000000</v>
@@ -16160,36 +15746,30 @@
         <v>0</v>
       </c>
       <c r="BN69">
-        <v>120.6</v>
+        <v>62.70270270270271</v>
       </c>
       <c r="BO69">
-        <v>105.8</v>
-      </c>
-      <c r="BP69">
-        <v>62.70270270270271</v>
-      </c>
-      <c r="BQ69">
         <v>75.67567567567568</v>
       </c>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:67">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E70">
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G70">
         <v>4671875</v>
@@ -16369,36 +15949,30 @@
         <v>0</v>
       </c>
       <c r="BN70">
-        <v>281.6</v>
+        <v>17.08108108108108</v>
       </c>
       <c r="BO70">
-        <v>381.6</v>
-      </c>
-      <c r="BP70">
-        <v>17.08108108108108</v>
-      </c>
-      <c r="BQ70">
         <v>9.72972972972973</v>
       </c>
     </row>
-    <row r="71" spans="1:69">
+    <row r="71" spans="1:67">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E71">
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G71">
         <v>14285714</v>
@@ -16578,36 +16152,30 @@
         <v>0</v>
       </c>
       <c r="BN71">
-        <v>77</v>
+        <v>73.08108108108108</v>
       </c>
       <c r="BO71">
-        <v>170.4</v>
-      </c>
-      <c r="BP71">
-        <v>73.08108108108108</v>
-      </c>
-      <c r="BQ71">
         <v>58.81081081081081</v>
       </c>
     </row>
-    <row r="72" spans="1:69">
+    <row r="72" spans="1:67">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E72">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G72">
         <v>723840</v>
@@ -16787,36 +16355,30 @@
         <v>0</v>
       </c>
       <c r="BN72">
-        <v>233</v>
+        <v>29.94594594594594</v>
       </c>
       <c r="BO72">
-        <v>223</v>
-      </c>
-      <c r="BP72">
-        <v>29.94594594594594</v>
-      </c>
-      <c r="BQ72">
         <v>46.7027027027027</v>
       </c>
     </row>
-    <row r="73" spans="1:69">
+    <row r="73" spans="1:67">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E73">
         <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G73">
         <v>5500000</v>
@@ -16996,36 +16558,30 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <v>49.6</v>
+        <v>82.48648648648648</v>
       </c>
       <c r="BO73">
-        <v>60.2</v>
-      </c>
-      <c r="BP73">
-        <v>82.48648648648648</v>
-      </c>
-      <c r="BQ73">
         <v>86.91891891891893</v>
       </c>
     </row>
-    <row r="74" spans="1:69">
+    <row r="74" spans="1:67">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E74">
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G74">
         <v>7580000</v>
@@ -17205,36 +16761,30 @@
         <v>0</v>
       </c>
       <c r="BN74">
-        <v>66.8</v>
+        <v>77.4054054054054</v>
       </c>
       <c r="BO74">
-        <v>167</v>
-      </c>
-      <c r="BP74">
-        <v>77.4054054054054</v>
-      </c>
-      <c r="BQ74">
         <v>56.86486486486486</v>
       </c>
     </row>
-    <row r="75" spans="1:69">
+    <row r="75" spans="1:67">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E75">
         <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G75">
         <v>1560000</v>
@@ -17414,36 +16964,30 @@
         <v>0</v>
       </c>
       <c r="BN75">
-        <v>170.4</v>
+        <v>45.72972972972973</v>
       </c>
       <c r="BO75">
-        <v>264.4</v>
-      </c>
-      <c r="BP75">
-        <v>45.72972972972973</v>
-      </c>
-      <c r="BQ75">
         <v>32.64864864864865</v>
       </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" spans="1:67">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E76">
         <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G76">
         <v>4560000</v>
@@ -17623,36 +17167,30 @@
         <v>0</v>
       </c>
       <c r="BN76">
-        <v>108</v>
+        <v>63.78378378378379</v>
       </c>
       <c r="BO76">
-        <v>157.2</v>
-      </c>
-      <c r="BP76">
-        <v>63.78378378378379</v>
-      </c>
-      <c r="BQ76">
         <v>62.70270270270271</v>
       </c>
     </row>
-    <row r="77" spans="1:69">
+    <row r="77" spans="1:67">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E77">
         <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G77">
         <v>1440000</v>
@@ -17832,27 +17370,21 @@
         <v>0</v>
       </c>
       <c r="BN77">
-        <v>288.6</v>
+        <v>19.89189189189189</v>
       </c>
       <c r="BO77">
-        <v>283</v>
-      </c>
-      <c r="BP77">
-        <v>19.89189189189189</v>
-      </c>
-      <c r="BQ77">
         <v>27.56756756756757</v>
       </c>
     </row>
-    <row r="78" spans="1:69">
+    <row r="78" spans="1:67">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -17861,7 +17393,7 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G78">
         <v>1028400</v>
@@ -18041,36 +17573,30 @@
         <v>0</v>
       </c>
       <c r="BN78">
-        <v>148</v>
+        <v>54.37837837837838</v>
       </c>
       <c r="BO78">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="BP78">
-        <v>54.37837837837838</v>
-      </c>
-      <c r="BQ78">
         <v>76.64864864864866</v>
       </c>
     </row>
-    <row r="79" spans="1:69">
+    <row r="79" spans="1:67">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E79">
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G79">
         <v>250000</v>
@@ -18250,27 +17776,21 @@
         <v>1</v>
       </c>
       <c r="BN79">
-        <v>121</v>
+        <v>60.43243243243243</v>
       </c>
       <c r="BO79">
-        <v>226.8</v>
-      </c>
-      <c r="BP79">
-        <v>60.43243243243243</v>
-      </c>
-      <c r="BQ79">
         <v>43.56756756756756</v>
       </c>
     </row>
-    <row r="80" spans="1:69">
+    <row r="80" spans="1:67">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
@@ -18279,7 +17799,7 @@
         <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G80">
         <v>4110000</v>
@@ -18459,27 +17979,21 @@
         <v>0</v>
       </c>
       <c r="BN80">
-        <v>105</v>
+        <v>67.35135135135135</v>
       </c>
       <c r="BO80">
-        <v>179.8</v>
-      </c>
-      <c r="BP80">
-        <v>67.35135135135135</v>
-      </c>
-      <c r="BQ80">
         <v>56.86486486486486</v>
       </c>
     </row>
-    <row r="81" spans="1:69">
+    <row r="81" spans="1:67">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
@@ -18488,7 +18002,7 @@
         <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G81">
         <v>300000</v>
@@ -18668,36 +18182,30 @@
         <v>0</v>
       </c>
       <c r="BN81">
-        <v>247</v>
+        <v>23.78378378378379</v>
       </c>
       <c r="BO81">
-        <v>253.2</v>
-      </c>
-      <c r="BP81">
-        <v>23.78378378378379</v>
-      </c>
-      <c r="BQ81">
         <v>39.67567567567568</v>
       </c>
     </row>
-    <row r="82" spans="1:69">
+    <row r="82" spans="1:67">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E82">
         <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G82">
         <v>4195000</v>
@@ -18877,27 +18385,21 @@
         <v>0</v>
       </c>
       <c r="BN82">
-        <v>116.6</v>
+        <v>62.81081081081081</v>
       </c>
       <c r="BO82">
-        <v>52.4</v>
-      </c>
-      <c r="BP82">
-        <v>62.81081081081081</v>
-      </c>
-      <c r="BQ82">
         <v>89.62162162162163</v>
       </c>
     </row>
-    <row r="83" spans="1:69">
+    <row r="83" spans="1:67">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -18906,7 +18408,7 @@
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G83">
         <v>6000000</v>
@@ -19086,36 +18588,30 @@
         <v>0</v>
       </c>
       <c r="BN83">
-        <v>83</v>
+        <v>71.78378378378379</v>
       </c>
       <c r="BO83">
-        <v>154.4</v>
-      </c>
-      <c r="BP83">
-        <v>71.78378378378379</v>
-      </c>
-      <c r="BQ83">
         <v>64.54054054054055</v>
       </c>
     </row>
-    <row r="84" spans="1:69">
+    <row r="84" spans="1:67">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E84">
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G84">
         <v>6000000</v>
@@ -19295,27 +18791,21 @@
         <v>0</v>
       </c>
       <c r="BN84">
-        <v>135.8</v>
+        <v>56.43243243243244</v>
       </c>
       <c r="BO84">
-        <v>117</v>
-      </c>
-      <c r="BP84">
-        <v>56.43243243243244</v>
-      </c>
-      <c r="BQ84">
         <v>70.81081081081081</v>
       </c>
     </row>
-    <row r="85" spans="1:69">
+    <row r="85" spans="1:67">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
@@ -19324,7 +18814,7 @@
         <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G85">
         <v>11250000</v>
@@ -19504,36 +18994,30 @@
         <v>0</v>
       </c>
       <c r="BN85">
-        <v>72.40000000000001</v>
+        <v>76.43243243243244</v>
       </c>
       <c r="BO85">
-        <v>144.4</v>
-      </c>
-      <c r="BP85">
-        <v>76.43243243243244</v>
-      </c>
-      <c r="BQ85">
         <v>64.21621621621621</v>
       </c>
     </row>
-    <row r="86" spans="1:69">
+    <row r="86" spans="1:67">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E86">
         <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G86">
         <v>1750000</v>
@@ -19713,36 +19197,30 @@
         <v>0</v>
       </c>
       <c r="BN86">
-        <v>139.2</v>
+        <v>57.83783783783784</v>
       </c>
       <c r="BO86">
-        <v>219.6</v>
-      </c>
-      <c r="BP86">
-        <v>57.83783783783784</v>
-      </c>
-      <c r="BQ86">
         <v>44.86486486486487</v>
       </c>
     </row>
-    <row r="87" spans="1:69">
+    <row r="87" spans="1:67">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E87">
         <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G87">
         <v>828000</v>
@@ -19922,36 +19400,30 @@
         <v>0</v>
       </c>
       <c r="BN87">
-        <v>127</v>
+        <v>60.64864864864865</v>
       </c>
       <c r="BO87">
-        <v>56.6</v>
-      </c>
-      <c r="BP87">
-        <v>60.64864864864865</v>
-      </c>
-      <c r="BQ87">
         <v>88.54054054054055</v>
       </c>
     </row>
-    <row r="88" spans="1:69">
+    <row r="88" spans="1:67">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E88">
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G88">
         <v>694920</v>
@@ -20131,36 +19603,30 @@
         <v>1</v>
       </c>
       <c r="BN88">
-        <v>110.6</v>
+        <v>65.18918918918919</v>
       </c>
       <c r="BO88">
-        <v>266.6</v>
-      </c>
-      <c r="BP88">
-        <v>65.18918918918919</v>
-      </c>
-      <c r="BQ88">
         <v>34.48648648648648</v>
       </c>
     </row>
-    <row r="89" spans="1:69">
+    <row r="89" spans="1:67">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E89">
         <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G89">
         <v>272250</v>
@@ -20340,36 +19806,30 @@
         <v>0</v>
       </c>
       <c r="BN89">
-        <v>222.2</v>
+        <v>33.4054054054054</v>
       </c>
       <c r="BO89">
-        <v>229.2</v>
-      </c>
-      <c r="BP89">
-        <v>33.4054054054054</v>
-      </c>
-      <c r="BQ89">
         <v>42.59459459459459</v>
       </c>
     </row>
-    <row r="90" spans="1:69">
+    <row r="90" spans="1:67">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D90" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E90">
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G90">
         <v>242000</v>
@@ -20549,36 +20009,30 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <v>198.4</v>
+        <v>39.56756756756757</v>
       </c>
       <c r="BO90">
-        <v>373.6</v>
-      </c>
-      <c r="BP90">
-        <v>39.56756756756757</v>
-      </c>
-      <c r="BQ90">
         <v>9.513513513513514</v>
       </c>
     </row>
-    <row r="91" spans="1:69">
+    <row r="91" spans="1:67">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E91">
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G91">
         <v>3000000</v>
@@ -20758,36 +20212,30 @@
         <v>0</v>
       </c>
       <c r="BN91">
-        <v>153</v>
+        <v>53.2972972972973</v>
       </c>
       <c r="BO91">
-        <v>212</v>
-      </c>
-      <c r="BP91">
-        <v>53.2972972972973</v>
-      </c>
-      <c r="BQ91">
         <v>47.45945945945946</v>
       </c>
     </row>
-    <row r="92" spans="1:69">
+    <row r="92" spans="1:67">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E92">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G92">
         <v>2281128</v>
@@ -20964,36 +20412,30 @@
         <v>0</v>
       </c>
       <c r="BN92">
-        <v>202.8</v>
+        <v>64</v>
       </c>
       <c r="BO92">
-        <v>138.2</v>
-      </c>
-      <c r="BP92">
-        <v>64</v>
-      </c>
-      <c r="BQ92">
         <v>67.45945945945945</v>
       </c>
     </row>
-    <row r="93" spans="1:69">
+    <row r="93" spans="1:67">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E93">
         <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G93">
         <v>8000000</v>
@@ -21173,36 +20615,30 @@
         <v>0</v>
       </c>
       <c r="BN93">
-        <v>175</v>
+        <v>44.75675675675676</v>
       </c>
       <c r="BO93">
-        <v>144.4</v>
-      </c>
-      <c r="BP93">
-        <v>44.75675675675676</v>
-      </c>
-      <c r="BQ93">
         <v>64.54054054054055</v>
       </c>
     </row>
-    <row r="94" spans="1:69">
+    <row r="94" spans="1:67">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E94">
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G94">
         <v>8460714</v>
@@ -21382,36 +20818,30 @@
         <v>0</v>
       </c>
       <c r="BN94">
-        <v>162.8</v>
+        <v>53.72972972972973</v>
       </c>
       <c r="BO94">
-        <v>102</v>
-      </c>
-      <c r="BP94">
-        <v>53.72972972972973</v>
-      </c>
-      <c r="BQ94">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:69">
+    <row r="95" spans="1:67">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E95">
         <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G95">
         <v>2000000</v>
@@ -21591,27 +21021,21 @@
         <v>0</v>
       </c>
       <c r="BN95">
-        <v>69.8</v>
+        <v>77.4054054054054</v>
       </c>
       <c r="BO95">
-        <v>62.2</v>
-      </c>
-      <c r="BP95">
-        <v>77.4054054054054</v>
-      </c>
-      <c r="BQ95">
         <v>87.35135135135135</v>
       </c>
     </row>
-    <row r="96" spans="1:69">
+    <row r="96" spans="1:67">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
         <v>29</v>
@@ -21620,7 +21044,7 @@
         <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G96">
         <v>1886538</v>
@@ -21800,36 +21224,30 @@
         <v>0</v>
       </c>
       <c r="BN96">
-        <v>188.2</v>
+        <v>43.56756756756756</v>
       </c>
       <c r="BO96">
-        <v>293.2</v>
-      </c>
-      <c r="BP96">
-        <v>43.56756756756756</v>
-      </c>
-      <c r="BQ96">
         <v>29.08108108108108</v>
       </c>
     </row>
-    <row r="97" spans="1:69">
+    <row r="97" spans="1:67">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E97">
         <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G97">
         <v>2300000</v>
@@ -22006,27 +21424,21 @@
         <v>0</v>
       </c>
       <c r="BN97">
-        <v>287</v>
+        <v>41.51351351351351</v>
       </c>
       <c r="BO97">
-        <v>134.6</v>
-      </c>
-      <c r="BP97">
-        <v>41.51351351351351</v>
-      </c>
-      <c r="BQ97">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:69">
+    <row r="98" spans="1:67">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D98" t="s">
         <v>29</v>
@@ -22035,7 +21447,7 @@
         <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G98">
         <v>8600000</v>
@@ -22215,36 +21627,30 @@
         <v>0</v>
       </c>
       <c r="BN98">
-        <v>50.8</v>
+        <v>83.45945945945947</v>
       </c>
       <c r="BO98">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="BP98">
-        <v>83.45945945945947</v>
-      </c>
-      <c r="BQ98">
         <v>77.72972972972974</v>
       </c>
     </row>
-    <row r="99" spans="1:69">
+    <row r="99" spans="1:67">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E99">
         <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G99">
         <v>750000</v>
@@ -22424,36 +21830,30 @@
         <v>0</v>
       </c>
       <c r="BN99">
-        <v>255.6</v>
+        <v>25.72972972972973</v>
       </c>
       <c r="BO99">
-        <v>166</v>
-      </c>
-      <c r="BP99">
-        <v>25.72972972972973</v>
-      </c>
-      <c r="BQ99">
         <v>59.78378378378378</v>
       </c>
     </row>
-    <row r="100" spans="1:69">
+    <row r="100" spans="1:67">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G100">
         <v>1559040</v>
@@ -22633,36 +22033,30 @@
         <v>0</v>
       </c>
       <c r="BN100">
-        <v>83.8</v>
+        <v>72.21621621621621</v>
       </c>
       <c r="BO100">
-        <v>95.2</v>
-      </c>
-      <c r="BP100">
-        <v>72.21621621621621</v>
-      </c>
-      <c r="BQ100">
         <v>79.13513513513514</v>
       </c>
     </row>
-    <row r="101" spans="1:69">
+    <row r="101" spans="1:67">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E101">
         <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G101">
         <v>949320</v>
@@ -22842,36 +22236,30 @@
         <v>0</v>
       </c>
       <c r="BN101">
-        <v>127.8</v>
+        <v>61.4054054054054</v>
       </c>
       <c r="BO101">
-        <v>129</v>
-      </c>
-      <c r="BP101">
-        <v>61.4054054054054</v>
-      </c>
-      <c r="BQ101">
         <v>71.02702702702703</v>
       </c>
     </row>
-    <row r="102" spans="1:69">
+    <row r="102" spans="1:67">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E102">
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G102">
         <v>2000000</v>
@@ -23051,36 +22439,30 @@
         <v>0</v>
       </c>
       <c r="BN102">
-        <v>142.2</v>
+        <v>53.08108108108108</v>
       </c>
       <c r="BO102">
-        <v>209</v>
-      </c>
-      <c r="BP102">
-        <v>53.08108108108108</v>
-      </c>
-      <c r="BQ102">
         <v>47.13513513513514</v>
       </c>
     </row>
-    <row r="103" spans="1:69">
+    <row r="103" spans="1:67">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E103">
         <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G103">
         <v>4560000</v>
@@ -23260,27 +22642,21 @@
         <v>0</v>
       </c>
       <c r="BN103">
-        <v>98.2</v>
+        <v>69.4054054054054</v>
       </c>
       <c r="BO103">
-        <v>94</v>
-      </c>
-      <c r="BP103">
-        <v>69.4054054054054</v>
-      </c>
-      <c r="BQ103">
         <v>79.13513513513514</v>
       </c>
     </row>
-    <row r="104" spans="1:69">
+    <row r="104" spans="1:67">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
@@ -23289,7 +22665,7 @@
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G104">
         <v>5050000</v>
@@ -23469,36 +22845,30 @@
         <v>0</v>
       </c>
       <c r="BN104">
-        <v>78.40000000000001</v>
+        <v>72.21621621621621</v>
       </c>
       <c r="BO104">
-        <v>63</v>
-      </c>
-      <c r="BP104">
-        <v>72.21621621621621</v>
-      </c>
-      <c r="BQ104">
         <v>86.81081081081081</v>
       </c>
     </row>
-    <row r="105" spans="1:69">
+    <row r="105" spans="1:67">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E105">
         <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G105">
         <v>2700000</v>
@@ -23678,27 +23048,21 @@
         <v>0</v>
       </c>
       <c r="BN105">
-        <v>281.6</v>
+        <v>21.08108108108108</v>
       </c>
       <c r="BO105">
-        <v>359.4</v>
-      </c>
-      <c r="BP105">
-        <v>21.08108108108108</v>
-      </c>
-      <c r="BQ105">
         <v>13.62162162162162</v>
       </c>
     </row>
-    <row r="106" spans="1:69">
+    <row r="106" spans="1:67">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
@@ -23707,7 +23071,7 @@
         <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G106">
         <v>2610335</v>
@@ -23887,36 +23251,30 @@
         <v>0</v>
       </c>
       <c r="BN106">
-        <v>224.6</v>
+        <v>29.18918918918919</v>
       </c>
       <c r="BO106">
-        <v>268.2</v>
-      </c>
-      <c r="BP106">
-        <v>29.18918918918919</v>
-      </c>
-      <c r="BQ106">
         <v>31.89189189189189</v>
       </c>
     </row>
-    <row r="107" spans="1:69">
+    <row r="107" spans="1:67">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E107">
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G107">
         <v>3184900</v>
@@ -24093,36 +23451,30 @@
         <v>0</v>
       </c>
       <c r="BN107">
-        <v>196.2</v>
+        <v>62.59459459459459</v>
       </c>
       <c r="BO107">
-        <v>186.2</v>
-      </c>
-      <c r="BP107">
-        <v>62.59459459459459</v>
-      </c>
-      <c r="BQ107">
         <v>51.45945945945945</v>
       </c>
     </row>
-    <row r="108" spans="1:69">
+    <row r="108" spans="1:67">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E108">
         <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G108">
         <v>480000</v>
@@ -24299,27 +23651,21 @@
         <v>0</v>
       </c>
       <c r="BN108">
-        <v>339.4</v>
+        <v>33.18918918918919</v>
       </c>
       <c r="BO108">
-        <v>348.2</v>
-      </c>
-      <c r="BP108">
-        <v>33.18918918918919</v>
-      </c>
-      <c r="BQ108">
         <v>17.83783783783784</v>
       </c>
     </row>
-    <row r="109" spans="1:69">
+    <row r="109" spans="1:67">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
@@ -24328,7 +23674,7 @@
         <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G109">
         <v>6833333</v>
@@ -24508,36 +23854,30 @@
         <v>0</v>
       </c>
       <c r="BN109">
-        <v>97.8</v>
+        <v>68.21621621621622</v>
       </c>
       <c r="BO109">
-        <v>58.8</v>
-      </c>
-      <c r="BP109">
-        <v>68.21621621621622</v>
-      </c>
-      <c r="BQ109">
         <v>88.00000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:69">
+    <row r="110" spans="1:67">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D110" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E110">
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G110">
         <v>2266320</v>
@@ -24717,36 +24057,30 @@
         <v>0</v>
       </c>
       <c r="BN110">
-        <v>125.4</v>
+        <v>61.83783783783784</v>
       </c>
       <c r="BO110">
-        <v>142.2</v>
-      </c>
-      <c r="BP110">
-        <v>61.83783783783784</v>
-      </c>
-      <c r="BQ110">
         <v>65.08108108108108</v>
       </c>
     </row>
-    <row r="111" spans="1:69">
+    <row r="111" spans="1:67">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E111">
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G111">
         <v>3990000</v>
@@ -24926,36 +24260,30 @@
         <v>0</v>
       </c>
       <c r="BN111">
-        <v>64.40000000000001</v>
+        <v>78.05405405405406</v>
       </c>
       <c r="BO111">
-        <v>172.8</v>
-      </c>
-      <c r="BP111">
-        <v>78.05405405405406</v>
-      </c>
-      <c r="BQ111">
         <v>55.99999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:69">
+    <row r="112" spans="1:67">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D112" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E112">
         <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G112">
         <v>431250</v>
@@ -25135,36 +24463,30 @@
         <v>0</v>
       </c>
       <c r="BN112">
-        <v>175.2</v>
+        <v>47.24324324324324</v>
       </c>
       <c r="BO112">
-        <v>282</v>
-      </c>
-      <c r="BP112">
-        <v>47.24324324324324</v>
-      </c>
-      <c r="BQ112">
         <v>34.48648648648648</v>
       </c>
     </row>
-    <row r="113" spans="1:69">
+    <row r="113" spans="1:67">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E113">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G113">
         <v>862560</v>
@@ -25344,36 +24666,30 @@
         <v>0</v>
       </c>
       <c r="BN113">
-        <v>116.2</v>
+        <v>63.89189189189189</v>
       </c>
       <c r="BO113">
-        <v>250.8</v>
-      </c>
-      <c r="BP113">
-        <v>63.89189189189189</v>
-      </c>
-      <c r="BQ113">
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:69">
+    <row r="114" spans="1:67">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D114" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E114">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G114">
         <v>272250</v>
@@ -25553,27 +24869,21 @@
         <v>0</v>
       </c>
       <c r="BN114">
-        <v>197.6</v>
+        <v>40.21621621621622</v>
       </c>
       <c r="BO114">
-        <v>197.6</v>
-      </c>
-      <c r="BP114">
-        <v>40.21621621621622</v>
-      </c>
-      <c r="BQ114">
         <v>50.48648648648649</v>
       </c>
     </row>
-    <row r="115" spans="1:69">
+    <row r="115" spans="1:67">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
@@ -25582,7 +24892,7 @@
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G115">
         <v>2876640</v>
@@ -25762,36 +25072,30 @@
         <v>0</v>
       </c>
       <c r="BN115">
-        <v>77.59999999999999</v>
+        <v>74.4864864864865</v>
       </c>
       <c r="BO115">
-        <v>49</v>
-      </c>
-      <c r="BP115">
-        <v>74.4864864864865</v>
-      </c>
-      <c r="BQ115">
         <v>90.70270270270271</v>
       </c>
     </row>
-    <row r="116" spans="1:69">
+    <row r="116" spans="1:67">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D116" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E116">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G116">
         <v>1768320</v>
@@ -25971,36 +25275,30 @@
         <v>0</v>
       </c>
       <c r="BN116">
-        <v>137.2</v>
+        <v>59.24324324324323</v>
       </c>
       <c r="BO116">
-        <v>211</v>
-      </c>
-      <c r="BP116">
-        <v>59.24324324324323</v>
-      </c>
-      <c r="BQ116">
         <v>45.40540540540541</v>
       </c>
     </row>
-    <row r="117" spans="1:69">
+    <row r="117" spans="1:67">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E117">
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G117">
         <v>3000000</v>
@@ -26180,36 +25478,30 @@
         <v>0</v>
       </c>
       <c r="BN117">
-        <v>158.6</v>
+        <v>48.21621621621622</v>
       </c>
       <c r="BO117">
-        <v>182.8</v>
-      </c>
-      <c r="BP117">
-        <v>48.21621621621622</v>
-      </c>
-      <c r="BQ117">
         <v>55.02702702702702</v>
       </c>
     </row>
-    <row r="118" spans="1:69">
+    <row r="118" spans="1:67">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E118">
         <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G118">
         <v>2160000</v>
@@ -26389,36 +25681,30 @@
         <v>0</v>
       </c>
       <c r="BN118">
-        <v>221</v>
+        <v>29.4054054054054</v>
       </c>
       <c r="BO118">
-        <v>293.8</v>
-      </c>
-      <c r="BP118">
-        <v>29.4054054054054</v>
-      </c>
-      <c r="BQ118">
         <v>28.43243243243243</v>
       </c>
     </row>
-    <row r="119" spans="1:69">
+    <row r="119" spans="1:67">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E119">
         <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G119">
         <v>1400000</v>
@@ -26598,36 +25884,30 @@
         <v>0</v>
       </c>
       <c r="BN119">
-        <v>147.6</v>
+        <v>50.48648648648649</v>
       </c>
       <c r="BO119">
-        <v>133</v>
-      </c>
-      <c r="BP119">
-        <v>50.48648648648649</v>
-      </c>
-      <c r="BQ119">
         <v>67.56756756756756</v>
       </c>
     </row>
-    <row r="120" spans="1:69">
+    <row r="120" spans="1:67">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E120">
         <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G120">
         <v>2900000</v>
@@ -26807,36 +26087,30 @@
         <v>0</v>
       </c>
       <c r="BN120">
-        <v>83.59999999999999</v>
+        <v>73.51351351351352</v>
       </c>
       <c r="BO120">
-        <v>108.6</v>
-      </c>
-      <c r="BP120">
-        <v>73.51351351351352</v>
-      </c>
-      <c r="BQ120">
         <v>73.72972972972973</v>
       </c>
     </row>
-    <row r="121" spans="1:69">
+    <row r="121" spans="1:67">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E121">
         <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G121">
         <v>2040000</v>
@@ -27016,36 +26290,30 @@
         <v>0</v>
       </c>
       <c r="BN121">
-        <v>167.2</v>
+        <v>47.56756756756757</v>
       </c>
       <c r="BO121">
-        <v>78.2</v>
-      </c>
-      <c r="BP121">
-        <v>47.56756756756757</v>
-      </c>
-      <c r="BQ121">
         <v>81.4054054054054</v>
       </c>
     </row>
-    <row r="122" spans="1:69">
+    <row r="122" spans="1:67">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E122">
         <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G122">
         <v>1325000</v>
@@ -27225,27 +26493,21 @@
         <v>0</v>
       </c>
       <c r="BN122">
-        <v>157.8</v>
+        <v>49.51351351351352</v>
       </c>
       <c r="BO122">
-        <v>205.8</v>
-      </c>
-      <c r="BP122">
-        <v>49.51351351351352</v>
-      </c>
-      <c r="BQ122">
         <v>51.89189189189189</v>
       </c>
     </row>
-    <row r="123" spans="1:69">
+    <row r="123" spans="1:67">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
@@ -27254,7 +26516,7 @@
         <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G123">
         <v>2850000</v>
@@ -27434,36 +26696,30 @@
         <v>0</v>
       </c>
       <c r="BN123">
-        <v>102.8</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="BO123">
-        <v>207.4</v>
-      </c>
-      <c r="BP123">
-        <v>66.16216216216216</v>
-      </c>
-      <c r="BQ123">
         <v>49.51351351351352</v>
       </c>
     </row>
-    <row r="124" spans="1:69">
+    <row r="124" spans="1:67">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E124">
         <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G124">
         <v>647400</v>
@@ -27640,27 +26896,21 @@
         <v>0</v>
       </c>
       <c r="BN124">
-        <v>235.8</v>
+        <v>58.81081081081081</v>
       </c>
       <c r="BO124">
-        <v>247.6</v>
-      </c>
-      <c r="BP124">
-        <v>58.81081081081081</v>
-      </c>
-      <c r="BQ124">
         <v>37.83783783783784</v>
       </c>
     </row>
-    <row r="125" spans="1:69">
+    <row r="125" spans="1:67">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
@@ -27669,7 +26919,7 @@
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G125">
         <v>1000000</v>
@@ -27849,36 +27099,30 @@
         <v>0</v>
       </c>
       <c r="BN125">
-        <v>71</v>
+        <v>76.75675675675676</v>
       </c>
       <c r="BO125">
-        <v>134.6</v>
-      </c>
-      <c r="BP125">
-        <v>76.75675675675676</v>
-      </c>
-      <c r="BQ125">
         <v>68.32432432432432</v>
       </c>
     </row>
-    <row r="126" spans="1:69">
+    <row r="126" spans="1:67">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E126">
         <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G126">
         <v>326700</v>
@@ -28058,36 +27302,30 @@
         <v>0</v>
       </c>
       <c r="BN126">
-        <v>327.8</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="BO126">
-        <v>381.8</v>
-      </c>
-      <c r="BP126">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="BQ126">
         <v>8.972972972972974</v>
       </c>
     </row>
-    <row r="127" spans="1:69">
+    <row r="127" spans="1:67">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E127">
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G127">
         <v>4225200</v>
@@ -28267,36 +27505,30 @@
         <v>0</v>
       </c>
       <c r="BN127">
-        <v>92.2</v>
+        <v>70.05405405405405</v>
       </c>
       <c r="BO127">
-        <v>192.6</v>
-      </c>
-      <c r="BP127">
-        <v>70.05405405405405</v>
-      </c>
-      <c r="BQ127">
         <v>51.24324324324324</v>
       </c>
     </row>
-    <row r="128" spans="1:69">
+    <row r="128" spans="1:67">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E128">
         <v>25</v>
       </c>
       <c r="F128" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G128">
         <v>1262640</v>
@@ -28476,36 +27708,30 @@
         <v>0</v>
       </c>
       <c r="BN128">
-        <v>172.4</v>
+        <v>44.97297297297298</v>
       </c>
       <c r="BO128">
-        <v>198</v>
-      </c>
-      <c r="BP128">
-        <v>44.97297297297298</v>
-      </c>
-      <c r="BQ128">
         <v>50.37837837837837</v>
       </c>
     </row>
-    <row r="129" spans="1:69">
+    <row r="129" spans="1:67">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D129" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E129">
         <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G129">
         <v>1987500</v>
@@ -28685,36 +27911,30 @@
         <v>0</v>
       </c>
       <c r="BN129">
-        <v>211.8</v>
+        <v>39.02702702702703</v>
       </c>
       <c r="BO129">
-        <v>156.8</v>
-      </c>
-      <c r="BP129">
-        <v>39.02702702702703</v>
-      </c>
-      <c r="BQ129">
         <v>61.4054054054054</v>
       </c>
     </row>
-    <row r="130" spans="1:69">
+    <row r="130" spans="1:67">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E130">
         <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G130">
         <v>2000000</v>
@@ -28894,27 +28114,21 @@
         <v>0</v>
       </c>
       <c r="BN130">
-        <v>214.6</v>
+        <v>38.5945945945946</v>
       </c>
       <c r="BO130">
-        <v>306.6</v>
-      </c>
-      <c r="BP130">
-        <v>38.5945945945946</v>
-      </c>
-      <c r="BQ130">
         <v>25.94594594594595</v>
       </c>
     </row>
-    <row r="131" spans="1:69">
+    <row r="131" spans="1:67">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
@@ -28923,7 +28137,7 @@
         <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G131">
         <v>2470000</v>
@@ -29103,36 +28317,30 @@
         <v>0</v>
       </c>
       <c r="BN131">
-        <v>212</v>
+        <v>33.08108108108108</v>
       </c>
       <c r="BO131">
-        <v>278</v>
-      </c>
-      <c r="BP131">
-        <v>33.08108108108108</v>
-      </c>
-      <c r="BQ131">
         <v>29.94594594594594</v>
       </c>
     </row>
-    <row r="132" spans="1:69">
+    <row r="132" spans="1:67">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D132" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E132">
         <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G132">
         <v>3500000</v>
@@ -29312,36 +28520,30 @@
         <v>0</v>
       </c>
       <c r="BN132">
-        <v>86.8</v>
+        <v>71.45945945945945</v>
       </c>
       <c r="BO132">
-        <v>103.2</v>
-      </c>
-      <c r="BP132">
-        <v>71.45945945945945</v>
-      </c>
-      <c r="BQ132">
         <v>76.21621621621621</v>
       </c>
     </row>
-    <row r="133" spans="1:69">
+    <row r="133" spans="1:67">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E133">
         <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G133">
         <v>1587500</v>
@@ -29521,36 +28723,30 @@
         <v>0</v>
       </c>
       <c r="BN133">
-        <v>173.4</v>
+        <v>43.45945945945947</v>
       </c>
       <c r="BO133">
-        <v>132</v>
-      </c>
-      <c r="BP133">
-        <v>43.45945945945947</v>
-      </c>
-      <c r="BQ133">
         <v>66.70270270270271</v>
       </c>
     </row>
-    <row r="134" spans="1:69">
+    <row r="134" spans="1:67">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D134" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E134">
         <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G134">
         <v>3610000</v>
@@ -29730,36 +28926,30 @@
         <v>0</v>
       </c>
       <c r="BN134">
-        <v>156.2</v>
+        <v>51.56756756756757</v>
       </c>
       <c r="BO134">
-        <v>228.4</v>
-      </c>
-      <c r="BP134">
-        <v>51.56756756756757</v>
-      </c>
-      <c r="BQ134">
         <v>39.78378378378378</v>
       </c>
     </row>
-    <row r="135" spans="1:69">
+    <row r="135" spans="1:67">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D135" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E135">
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G135">
         <v>2000000</v>
@@ -29939,36 +29129,30 @@
         <v>0</v>
       </c>
       <c r="BN135">
-        <v>170.8</v>
+        <v>44.10810810810811</v>
       </c>
       <c r="BO135">
-        <v>97</v>
-      </c>
-      <c r="BP135">
-        <v>44.10810810810811</v>
-      </c>
-      <c r="BQ135">
         <v>77.62162162162161</v>
       </c>
     </row>
-    <row r="136" spans="1:69">
+    <row r="136" spans="1:67">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D136" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E136">
         <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G136">
         <v>1228560</v>
@@ -30148,36 +29332,30 @@
         <v>0</v>
       </c>
       <c r="BN136">
-        <v>224.8</v>
+        <v>30.81081081081081</v>
       </c>
       <c r="BO136">
-        <v>262.6</v>
-      </c>
-      <c r="BP136">
-        <v>30.81081081081081</v>
-      </c>
-      <c r="BQ136">
         <v>37.4054054054054</v>
       </c>
     </row>
-    <row r="137" spans="1:69">
+    <row r="137" spans="1:67">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D137" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E137">
         <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G137">
         <v>4090920</v>
@@ -30357,36 +29535,30 @@
         <v>0</v>
       </c>
       <c r="BN137">
-        <v>193</v>
+        <v>45.40540540540541</v>
       </c>
       <c r="BO137">
-        <v>186.6</v>
-      </c>
-      <c r="BP137">
-        <v>45.40540540540541</v>
-      </c>
-      <c r="BQ137">
         <v>52.64864864864865</v>
       </c>
     </row>
-    <row r="138" spans="1:69">
+    <row r="138" spans="1:67">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D138" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E138">
         <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G138">
         <v>326700</v>
@@ -30566,27 +29738,21 @@
         <v>0</v>
       </c>
       <c r="BN138">
-        <v>223</v>
+        <v>33.18918918918919</v>
       </c>
       <c r="BO138">
-        <v>176</v>
-      </c>
-      <c r="BP138">
-        <v>33.18918918918919</v>
-      </c>
-      <c r="BQ138">
         <v>55.45945945945946</v>
       </c>
     </row>
-    <row r="139" spans="1:69">
+    <row r="139" spans="1:67">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
@@ -30595,7 +29761,7 @@
         <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G139">
         <v>1000000</v>
@@ -30772,36 +29938,30 @@
         <v>0</v>
       </c>
       <c r="BN139">
-        <v>296.8</v>
+        <v>40.64864864864865</v>
       </c>
       <c r="BO139">
-        <v>196.6</v>
-      </c>
-      <c r="BP139">
-        <v>40.64864864864865</v>
-      </c>
-      <c r="BQ139">
         <v>51.35135135135135</v>
       </c>
     </row>
-    <row r="140" spans="1:69">
+    <row r="140" spans="1:67">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E140">
         <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G140">
         <v>2820710</v>
@@ -30981,36 +30141,30 @@
         <v>0</v>
       </c>
       <c r="BN140">
-        <v>254.2</v>
+        <v>26.7027027027027</v>
       </c>
       <c r="BO140">
-        <v>373.6</v>
-      </c>
-      <c r="BP140">
-        <v>26.7027027027027</v>
-      </c>
-      <c r="BQ140">
         <v>9.837837837837837</v>
       </c>
     </row>
-    <row r="141" spans="1:69">
+    <row r="141" spans="1:67">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D141" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E141">
         <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G141">
         <v>4210000</v>
@@ -31190,36 +30344,30 @@
         <v>0</v>
       </c>
       <c r="BN141">
-        <v>122.2</v>
+        <v>59.78378378378378</v>
       </c>
       <c r="BO141">
-        <v>125.8</v>
-      </c>
-      <c r="BP141">
-        <v>59.78378378378378</v>
-      </c>
-      <c r="BQ141">
         <v>68.54054054054053</v>
       </c>
     </row>
-    <row r="142" spans="1:69">
+    <row r="142" spans="1:67">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D142" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E142">
         <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G142">
         <v>3750000</v>
@@ -31396,36 +30544,30 @@
         <v>0</v>
       </c>
       <c r="BN142">
-        <v>266.8</v>
+        <v>50.05405405405406</v>
       </c>
       <c r="BO142">
-        <v>294</v>
-      </c>
-      <c r="BP142">
-        <v>50.05405405405406</v>
-      </c>
-      <c r="BQ142">
         <v>30.48648648648648</v>
       </c>
     </row>
-    <row r="143" spans="1:69">
+    <row r="143" spans="1:67">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D143" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E143">
         <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G143">
         <v>1000000</v>
@@ -31605,36 +30747,30 @@
         <v>0</v>
       </c>
       <c r="BN143">
-        <v>84.8</v>
+        <v>71.89189189189189</v>
       </c>
       <c r="BO143">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="BP143">
-        <v>71.89189189189189</v>
-      </c>
-      <c r="BQ143">
         <v>81.72972972972973</v>
       </c>
     </row>
-    <row r="144" spans="1:69">
+    <row r="144" spans="1:67">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C144" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D144" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E144">
         <v>25</v>
       </c>
       <c r="F144" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G144">
         <v>5510000</v>
@@ -31814,36 +30950,30 @@
         <v>0</v>
       </c>
       <c r="BN144">
-        <v>70.40000000000001</v>
+        <v>75.67567567567568</v>
       </c>
       <c r="BO144">
-        <v>141</v>
-      </c>
-      <c r="BP144">
-        <v>75.67567567567568</v>
-      </c>
-      <c r="BQ144">
         <v>64.75675675675674</v>
       </c>
     </row>
-    <row r="145" spans="1:69">
+    <row r="145" spans="1:67">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D145" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E145">
         <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G145">
         <v>1500000</v>
@@ -32023,36 +31153,30 @@
         <v>0</v>
       </c>
       <c r="BN145">
-        <v>255.4</v>
+        <v>28.54054054054054</v>
       </c>
       <c r="BO145">
-        <v>274.2</v>
-      </c>
-      <c r="BP145">
-        <v>28.54054054054054</v>
-      </c>
-      <c r="BQ145">
         <v>34.81081081081081</v>
       </c>
     </row>
-    <row r="146" spans="1:69">
+    <row r="146" spans="1:67">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C146" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D146" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E146">
         <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G146">
         <v>2640000</v>
@@ -32232,36 +31356,30 @@
         <v>0</v>
       </c>
       <c r="BN146">
-        <v>86</v>
+        <v>71.67567567567568</v>
       </c>
       <c r="BO146">
-        <v>146</v>
-      </c>
-      <c r="BP146">
-        <v>71.67567567567568</v>
-      </c>
-      <c r="BQ146">
         <v>64.21621621621621</v>
       </c>
     </row>
-    <row r="147" spans="1:69">
+    <row r="147" spans="1:67">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D147" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E147">
         <v>28</v>
       </c>
       <c r="F147" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G147">
         <v>1440000</v>
@@ -32438,36 +31556,30 @@
         <v>0</v>
       </c>
       <c r="BN147">
-        <v>317.6</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="BO147">
-        <v>213.8</v>
-      </c>
-      <c r="BP147">
-        <v>37.83783783783784</v>
-      </c>
-      <c r="BQ147">
         <v>46.7027027027027</v>
       </c>
     </row>
-    <row r="148" spans="1:69">
+    <row r="148" spans="1:67">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D148" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E148">
         <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G148">
         <v>2857144</v>
@@ -32647,36 +31759,30 @@
         <v>0</v>
       </c>
       <c r="BN148">
-        <v>154.2</v>
+        <v>52.21621621621622</v>
       </c>
       <c r="BO148">
-        <v>155</v>
-      </c>
-      <c r="BP148">
-        <v>52.21621621621622</v>
-      </c>
-      <c r="BQ148">
         <v>63.45945945945947</v>
       </c>
     </row>
-    <row r="149" spans="1:69">
+    <row r="149" spans="1:67">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E149">
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G149">
         <v>690000</v>
@@ -32853,36 +31959,30 @@
         <v>0</v>
       </c>
       <c r="BN149">
-        <v>298</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="BO149">
-        <v>288.6</v>
-      </c>
-      <c r="BP149">
-        <v>40.10810810810811</v>
-      </c>
-      <c r="BQ149">
         <v>28.64864864864865</v>
       </c>
     </row>
-    <row r="150" spans="1:69">
+    <row r="150" spans="1:67">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D150" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E150">
         <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G150">
         <v>1150000</v>
@@ -33062,27 +32162,21 @@
         <v>0</v>
       </c>
       <c r="BN150">
-        <v>189.4</v>
+        <v>39.89189189189189</v>
       </c>
       <c r="BO150">
-        <v>214.4</v>
-      </c>
-      <c r="BP150">
-        <v>39.89189189189189</v>
-      </c>
-      <c r="BQ150">
         <v>45.94594594594595</v>
       </c>
     </row>
-    <row r="151" spans="1:69">
+    <row r="151" spans="1:67">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
@@ -33091,7 +32185,7 @@
         <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G151">
         <v>350000</v>
@@ -33268,36 +32362,30 @@
         <v>0</v>
       </c>
       <c r="BN151">
-        <v>280.6</v>
+        <v>45.08108108108109</v>
       </c>
       <c r="BO151">
-        <v>284.2</v>
-      </c>
-      <c r="BP151">
-        <v>45.08108108108109</v>
-      </c>
-      <c r="BQ151">
         <v>32.97297297297298</v>
       </c>
     </row>
-    <row r="152" spans="1:69">
+    <row r="152" spans="1:67">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D152" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E152">
         <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G152">
         <v>5400000</v>
@@ -33477,36 +32565,30 @@
         <v>0</v>
       </c>
       <c r="BN152">
-        <v>92</v>
+        <v>70.48648648648648</v>
       </c>
       <c r="BO152">
-        <v>48</v>
-      </c>
-      <c r="BP152">
-        <v>70.48648648648648</v>
-      </c>
-      <c r="BQ152">
         <v>90.91891891891891</v>
       </c>
     </row>
-    <row r="153" spans="1:69">
+    <row r="153" spans="1:67">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D153" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E153">
         <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G153">
         <v>2178099</v>
@@ -33683,36 +32765,30 @@
         <v>0</v>
       </c>
       <c r="BN153">
-        <v>311</v>
+        <v>39.35135135135135</v>
       </c>
       <c r="BO153">
-        <v>341.6</v>
-      </c>
-      <c r="BP153">
-        <v>39.35135135135135</v>
-      </c>
-      <c r="BQ153">
         <v>18.81081081081081</v>
       </c>
     </row>
-    <row r="154" spans="1:69">
+    <row r="154" spans="1:67">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D154" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E154">
         <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G154">
         <v>7770000</v>
@@ -33892,36 +32968,30 @@
         <v>0</v>
       </c>
       <c r="BN154">
-        <v>78.8</v>
+        <v>73.83783783783784</v>
       </c>
       <c r="BO154">
-        <v>210.6</v>
-      </c>
-      <c r="BP154">
-        <v>73.83783783783784</v>
-      </c>
-      <c r="BQ154">
         <v>46.05405405405406</v>
       </c>
     </row>
-    <row r="155" spans="1:69">
+    <row r="155" spans="1:67">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D155" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E155">
         <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G155">
         <v>5112500</v>
@@ -34101,36 +33171,30 @@
         <v>0</v>
       </c>
       <c r="BN155">
-        <v>161.2</v>
+        <v>49.72972972972973</v>
       </c>
       <c r="BO155">
-        <v>138.8</v>
-      </c>
-      <c r="BP155">
-        <v>49.72972972972973</v>
-      </c>
-      <c r="BQ155">
         <v>64.54054054054055</v>
       </c>
     </row>
-    <row r="156" spans="1:69">
+    <row r="156" spans="1:67">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D156" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E156">
         <v>22</v>
       </c>
       <c r="F156" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G156">
         <v>242000</v>
@@ -34307,36 +33371,30 @@
         <v>0</v>
       </c>
       <c r="BN156">
-        <v>233</v>
+        <v>59.24324324324323</v>
       </c>
       <c r="BO156">
-        <v>251.4</v>
-      </c>
-      <c r="BP156">
-        <v>59.24324324324323</v>
-      </c>
-      <c r="BQ156">
         <v>36.54054054054054</v>
       </c>
     </row>
-    <row r="157" spans="1:69">
+    <row r="157" spans="1:67">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D157" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E157">
         <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G157">
         <v>4030000</v>
@@ -34516,36 +33574,30 @@
         <v>0</v>
       </c>
       <c r="BN157">
-        <v>206.8</v>
+        <v>36.54054054054054</v>
       </c>
       <c r="BO157">
-        <v>345.4</v>
-      </c>
-      <c r="BP157">
-        <v>36.54054054054054</v>
-      </c>
-      <c r="BQ157">
         <v>16.43243243243243</v>
       </c>
     </row>
-    <row r="158" spans="1:69">
+    <row r="158" spans="1:67">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D158" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E158">
         <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G158">
         <v>3450000</v>
@@ -34725,27 +33777,21 @@
         <v>0</v>
       </c>
       <c r="BN158">
-        <v>68.8</v>
+        <v>77.62162162162161</v>
       </c>
       <c r="BO158">
-        <v>100</v>
-      </c>
-      <c r="BP158">
-        <v>77.62162162162161</v>
-      </c>
-      <c r="BQ158">
         <v>77.4054054054054</v>
       </c>
     </row>
-    <row r="159" spans="1:69">
+    <row r="159" spans="1:67">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
@@ -34754,7 +33800,7 @@
         <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G159">
         <v>326700</v>
@@ -34934,36 +33980,30 @@
         <v>0</v>
       </c>
       <c r="BN159">
-        <v>170.8</v>
+        <v>47.78378378378378</v>
       </c>
       <c r="BO159">
-        <v>176.8</v>
-      </c>
-      <c r="BP159">
-        <v>47.78378378378378</v>
-      </c>
-      <c r="BQ159">
         <v>58.7027027027027</v>
       </c>
     </row>
-    <row r="160" spans="1:69">
+    <row r="160" spans="1:67">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D160" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E160">
         <v>24</v>
       </c>
       <c r="F160" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G160">
         <v>976920</v>
@@ -35143,27 +34183,21 @@
         <v>0</v>
       </c>
       <c r="BN160">
-        <v>178.8</v>
+        <v>41.83783783783785</v>
       </c>
       <c r="BO160">
-        <v>303.2</v>
-      </c>
-      <c r="BP160">
-        <v>41.83783783783785</v>
-      </c>
-      <c r="BQ160">
         <v>23.67567567567567</v>
       </c>
     </row>
-    <row r="161" spans="1:69">
+    <row r="161" spans="1:67">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
@@ -35172,7 +34206,7 @@
         <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G161">
         <v>1051800</v>
@@ -35352,36 +34386,30 @@
         <v>1</v>
       </c>
       <c r="BN161">
-        <v>179.6</v>
+        <v>44.75675675675676</v>
       </c>
       <c r="BO161">
-        <v>207.6</v>
-      </c>
-      <c r="BP161">
-        <v>44.75675675675676</v>
-      </c>
-      <c r="BQ161">
         <v>51.78378378378379</v>
       </c>
     </row>
-    <row r="162" spans="1:69">
+    <row r="162" spans="1:67">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D162" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E162">
         <v>20</v>
       </c>
       <c r="F162" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G162">
         <v>1614240</v>
@@ -35561,36 +34589,30 @@
         <v>1</v>
       </c>
       <c r="BN162">
-        <v>186.2</v>
+        <v>42.27027027027027</v>
       </c>
       <c r="BO162">
-        <v>151.4</v>
-      </c>
-      <c r="BP162">
-        <v>42.27027027027027</v>
-      </c>
-      <c r="BQ162">
         <v>61.72972972972973</v>
       </c>
     </row>
-    <row r="163" spans="1:69">
+    <row r="163" spans="1:67">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D163" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E163">
         <v>26</v>
       </c>
       <c r="F163" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G163">
         <v>1900000</v>
@@ -35770,27 +34792,21 @@
         <v>0</v>
       </c>
       <c r="BN163">
-        <v>147.4</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="BO163">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="BP163">
-        <v>56.75675675675676</v>
-      </c>
-      <c r="BQ163">
         <v>78.70270270270269</v>
       </c>
     </row>
-    <row r="164" spans="1:69">
+    <row r="164" spans="1:67">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D164" t="s">
         <v>29</v>
@@ -35799,7 +34815,7 @@
         <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G164">
         <v>2655360</v>
@@ -35979,27 +34995,21 @@
         <v>0</v>
       </c>
       <c r="BN164">
-        <v>105.8</v>
+        <v>65.29729729729729</v>
       </c>
       <c r="BO164">
-        <v>133.8</v>
-      </c>
-      <c r="BP164">
-        <v>65.29729729729729</v>
-      </c>
-      <c r="BQ164">
         <v>66.81081081081081</v>
       </c>
     </row>
-    <row r="165" spans="1:69">
+    <row r="165" spans="1:67">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
@@ -36008,7 +35018,7 @@
         <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G165">
         <v>3350000</v>
@@ -36188,36 +35198,30 @@
         <v>0</v>
       </c>
       <c r="BN165">
-        <v>212.8</v>
+        <v>32.21621621621622</v>
       </c>
       <c r="BO165">
-        <v>361.6</v>
-      </c>
-      <c r="BP165">
-        <v>32.21621621621622</v>
-      </c>
-      <c r="BQ165">
         <v>13.62162162162162</v>
       </c>
     </row>
-    <row r="166" spans="1:69">
+    <row r="166" spans="1:67">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D166" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E166">
         <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G166">
         <v>3580000</v>
@@ -36394,27 +35398,21 @@
         <v>0</v>
       </c>
       <c r="BN166">
-        <v>279.6</v>
+        <v>47.67567567567568</v>
       </c>
       <c r="BO166">
-        <v>372.8</v>
-      </c>
-      <c r="BP166">
-        <v>47.67567567567568</v>
-      </c>
-      <c r="BQ166">
         <v>10.5945945945946</v>
       </c>
     </row>
-    <row r="167" spans="1:69">
+    <row r="167" spans="1:67">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
@@ -36423,7 +35421,7 @@
         <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G167">
         <v>1864080</v>
@@ -36603,36 +35601,30 @@
         <v>0</v>
       </c>
       <c r="BN167">
-        <v>37.8</v>
+        <v>87.13513513513513</v>
       </c>
       <c r="BO167">
-        <v>140.2</v>
-      </c>
-      <c r="BP167">
-        <v>87.13513513513513</v>
-      </c>
-      <c r="BQ167">
         <v>65.08108108108108</v>
       </c>
     </row>
-    <row r="168" spans="1:69">
+    <row r="168" spans="1:67">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D168" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E168">
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G168">
         <v>326700</v>
@@ -36809,36 +35801,30 @@
         <v>0</v>
       </c>
       <c r="BN168">
-        <v>267.6</v>
+        <v>50.27027027027027</v>
       </c>
       <c r="BO168">
-        <v>232.8</v>
-      </c>
-      <c r="BP168">
-        <v>50.27027027027027</v>
-      </c>
-      <c r="BQ168">
         <v>42.27027027027027</v>
       </c>
     </row>
-    <row r="169" spans="1:69">
+    <row r="169" spans="1:67">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D169" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E169">
         <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G169">
         <v>903120</v>
@@ -37018,27 +36004,21 @@
         <v>0</v>
       </c>
       <c r="BN169">
-        <v>113.2</v>
+        <v>61.51351351351351</v>
       </c>
       <c r="BO169">
-        <v>240</v>
-      </c>
-      <c r="BP169">
-        <v>61.51351351351351</v>
-      </c>
-      <c r="BQ169">
         <v>42.91891891891893</v>
       </c>
     </row>
-    <row r="170" spans="1:69">
+    <row r="170" spans="1:67">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
@@ -37047,7 +36027,7 @@
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G170">
         <v>2329080</v>
@@ -37227,36 +36207,30 @@
         <v>0</v>
       </c>
       <c r="BN170">
-        <v>82</v>
+        <v>72.75675675675676</v>
       </c>
       <c r="BO170">
-        <v>122.2</v>
-      </c>
-      <c r="BP170">
-        <v>72.75675675675676</v>
-      </c>
-      <c r="BQ170">
         <v>71.24324324324324</v>
       </c>
     </row>
-    <row r="171" spans="1:69">
+    <row r="171" spans="1:67">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D171" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E171">
         <v>27</v>
       </c>
       <c r="F171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G171">
         <v>1054500</v>
@@ -37436,36 +36410,30 @@
         <v>0</v>
       </c>
       <c r="BN171">
-        <v>104.2</v>
+        <v>66.48648648648648</v>
       </c>
       <c r="BO171">
-        <v>123.2</v>
-      </c>
-      <c r="BP171">
-        <v>66.48648648648648</v>
-      </c>
-      <c r="BQ171">
         <v>71.67567567567568</v>
       </c>
     </row>
-    <row r="172" spans="1:69">
+    <row r="172" spans="1:67">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D172" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E172">
         <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G172">
         <v>242000</v>
@@ -37645,36 +36613,30 @@
         <v>0</v>
       </c>
       <c r="BN172">
-        <v>194</v>
+        <v>38.5945945945946</v>
       </c>
       <c r="BO172">
-        <v>342.4</v>
-      </c>
-      <c r="BP172">
-        <v>38.5945945945946</v>
-      </c>
-      <c r="BQ172">
         <v>16.64864864864865</v>
       </c>
     </row>
-    <row r="173" spans="1:69">
+    <row r="173" spans="1:67">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D173" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E173">
         <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G173">
         <v>9000000</v>
@@ -37854,36 +36816,30 @@
         <v>0</v>
       </c>
       <c r="BN173">
-        <v>24.8</v>
+        <v>90.91891891891891</v>
       </c>
       <c r="BO173">
-        <v>62.8</v>
-      </c>
-      <c r="BP173">
-        <v>90.91891891891891</v>
-      </c>
-      <c r="BQ173">
         <v>86.70270270270271</v>
       </c>
     </row>
-    <row r="174" spans="1:69">
+    <row r="174" spans="1:67">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D174" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E174">
         <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G174">
         <v>2535000</v>
@@ -38063,36 +37019,30 @@
         <v>0</v>
       </c>
       <c r="BN174">
-        <v>284.2</v>
+        <v>18.7027027027027</v>
       </c>
       <c r="BO174">
-        <v>387.4</v>
-      </c>
-      <c r="BP174">
-        <v>18.7027027027027</v>
-      </c>
-      <c r="BQ174">
         <v>7.675675675675675</v>
       </c>
     </row>
-    <row r="175" spans="1:69">
+    <row r="175" spans="1:67">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C175" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D175" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E175">
         <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G175">
         <v>1200000</v>
@@ -38272,36 +37222,30 @@
         <v>0</v>
       </c>
       <c r="BN175">
-        <v>257.2</v>
+        <v>24.75675675675676</v>
       </c>
       <c r="BO175">
-        <v>180.6</v>
-      </c>
-      <c r="BP175">
-        <v>24.75675675675676</v>
-      </c>
-      <c r="BQ175">
         <v>54.91891891891891</v>
       </c>
     </row>
-    <row r="176" spans="1:69">
+    <row r="176" spans="1:67">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D176" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E176">
         <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G176">
         <v>326700</v>
@@ -38481,27 +37425,21 @@
         <v>0</v>
       </c>
       <c r="BN176">
-        <v>271.6</v>
+        <v>20</v>
       </c>
       <c r="BO176">
-        <v>364.6</v>
-      </c>
-      <c r="BP176">
-        <v>20</v>
-      </c>
-      <c r="BQ176">
         <v>13.40540540540541</v>
       </c>
     </row>
-    <row r="177" spans="1:69">
+    <row r="177" spans="1:67">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
@@ -38510,7 +37448,7 @@
         <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G177">
         <v>1431000</v>
@@ -38687,36 +37625,30 @@
         <v>0</v>
       </c>
       <c r="BN177">
-        <v>300.8</v>
+        <v>41.51351351351351</v>
       </c>
       <c r="BO177">
-        <v>192.4</v>
-      </c>
-      <c r="BP177">
-        <v>41.51351351351351</v>
-      </c>
-      <c r="BQ177">
         <v>51.67567567567567</v>
       </c>
     </row>
-    <row r="178" spans="1:69">
+    <row r="178" spans="1:67">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C178" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D178" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E178">
         <v>25</v>
       </c>
       <c r="F178" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G178">
         <v>1139520</v>
@@ -38893,36 +37825,30 @@
         <v>0</v>
       </c>
       <c r="BN178">
-        <v>255</v>
+        <v>53.94594594594594</v>
       </c>
       <c r="BO178">
-        <v>193.2</v>
-      </c>
-      <c r="BP178">
-        <v>53.94594594594594</v>
-      </c>
-      <c r="BQ178">
         <v>51.67567567567567</v>
       </c>
     </row>
-    <row r="179" spans="1:69">
+    <row r="179" spans="1:67">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D179" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E179">
         <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G179">
         <v>4550000</v>
@@ -39099,36 +38025,30 @@
         <v>0</v>
       </c>
       <c r="BN179">
-        <v>294.6</v>
+        <v>42.7027027027027</v>
       </c>
       <c r="BO179">
-        <v>220</v>
-      </c>
-      <c r="BP179">
-        <v>42.7027027027027</v>
-      </c>
-      <c r="BQ179">
         <v>46.16216216216216</v>
       </c>
     </row>
-    <row r="180" spans="1:69">
+    <row r="180" spans="1:67">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C180" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D180" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E180">
         <v>29</v>
       </c>
       <c r="F180" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G180">
         <v>2500000</v>
@@ -39308,27 +38228,21 @@
         <v>0</v>
       </c>
       <c r="BN180">
-        <v>122.2</v>
+        <v>60.97297297297297</v>
       </c>
       <c r="BO180">
-        <v>109</v>
-      </c>
-      <c r="BP180">
-        <v>60.97297297297297</v>
-      </c>
-      <c r="BQ180">
         <v>76.32432432432432</v>
       </c>
     </row>
-    <row r="181" spans="1:69">
+    <row r="181" spans="1:67">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -39337,7 +38251,7 @@
         <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G181">
         <v>652800</v>
@@ -39517,36 +38431,30 @@
         <v>0</v>
       </c>
       <c r="BN181">
-        <v>249</v>
+        <v>30.81081081081081</v>
       </c>
       <c r="BO181">
-        <v>128</v>
-      </c>
-      <c r="BP181">
-        <v>30.81081081081081</v>
-      </c>
-      <c r="BQ181">
         <v>70.16216216216216</v>
       </c>
     </row>
-    <row r="182" spans="1:69">
+    <row r="182" spans="1:67">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D182" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E182">
         <v>26</v>
       </c>
       <c r="F182" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G182">
         <v>1235000</v>
@@ -39726,36 +38634,30 @@
         <v>0</v>
       </c>
       <c r="BN182">
-        <v>221.2</v>
+        <v>31.78378378378378</v>
       </c>
       <c r="BO182">
-        <v>228.4</v>
-      </c>
-      <c r="BP182">
-        <v>31.78378378378378</v>
-      </c>
-      <c r="BQ182">
         <v>41.94594594594594</v>
       </c>
     </row>
-    <row r="183" spans="1:69">
+    <row r="183" spans="1:67">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D183" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E183">
         <v>29</v>
       </c>
       <c r="F183" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G183">
         <v>2850000</v>
@@ -39935,36 +38837,30 @@
         <v>0</v>
       </c>
       <c r="BN183">
-        <v>254.2</v>
+        <v>27.35135135135135</v>
       </c>
       <c r="BO183">
-        <v>268.4</v>
-      </c>
-      <c r="BP183">
-        <v>27.35135135135135</v>
-      </c>
-      <c r="BQ183">
         <v>34.91891891891892</v>
       </c>
     </row>
-    <row r="184" spans="1:69">
+    <row r="184" spans="1:67">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D184" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E184">
         <v>24</v>
       </c>
       <c r="F184" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G184">
         <v>1199520</v>
@@ -40144,27 +39040,21 @@
         <v>0</v>
       </c>
       <c r="BN184">
-        <v>82.59999999999999</v>
+        <v>73.18918918918919</v>
       </c>
       <c r="BO184">
-        <v>133.4</v>
-      </c>
-      <c r="BP184">
-        <v>73.18918918918919</v>
-      </c>
-      <c r="BQ184">
         <v>68</v>
       </c>
     </row>
-    <row r="185" spans="1:69">
+    <row r="185" spans="1:67">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
@@ -40173,7 +39063,7 @@
         <v>33</v>
       </c>
       <c r="F185" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G185">
         <v>480000</v>
@@ -40353,36 +39243,30 @@
         <v>0</v>
       </c>
       <c r="BN185">
-        <v>313.8</v>
+        <v>11.89189189189189</v>
       </c>
       <c r="BO185">
-        <v>414.6</v>
-      </c>
-      <c r="BP185">
-        <v>11.89189189189189</v>
-      </c>
-      <c r="BQ185">
         <v>2.594594594594594</v>
       </c>
     </row>
-    <row r="186" spans="1:69">
+    <row r="186" spans="1:67">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C186" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D186" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E186">
         <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G186">
         <v>1701720</v>
@@ -40562,15 +39446,9 @@
         <v>0</v>
       </c>
       <c r="BN186">
-        <v>129.2</v>
+        <v>59.24324324324323</v>
       </c>
       <c r="BO186">
-        <v>278.6</v>
-      </c>
-      <c r="BP186">
-        <v>59.24324324324323</v>
-      </c>
-      <c r="BQ186">
         <v>32.75675675675676</v>
       </c>
     </row>
